--- a/MAIN ASSIGNMENT/revised.xlsx
+++ b/MAIN ASSIGNMENT/revised.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -433,10 +433,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -451,6 +451,7 @@
     <col width="10.7265625" customWidth="1" min="10" max="10"/>
     <col width="17.453125" customWidth="1" min="11" max="11"/>
     <col width="20.453125" customWidth="1" min="12" max="12"/>
+    <col width="19.54296875" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -491,12 +492,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Timings</t>
+          <t>Timing 1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>No of Shows in a Day</t>
+          <t>Timing 2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -516,7 +517,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>No of Shows in a day</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Capacity</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Available Tickets</t>
         </is>
       </c>
     </row>
@@ -533,12 +544,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2 hr 30min</t>
+          <t>2hr 30min</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nani , Sai Pallavi</t>
+          <t>Nani,Pallavi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,36 +567,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9AM</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>45</v>
+          <t>9.30-12.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2.00-5.30</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>10AM</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>15min</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>30Min</t>
+        </is>
       </c>
       <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KGF</t>
+          <t>KGF-2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Historical</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3hr 4min</t>
+          <t>3hr</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -595,47 +623,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>KKY</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.7</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>English Telugu Tamil</t>
+          <t>Tamil , Telugu</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9AM , 12PM , 4PM,8PM</t>
+          <t>10am-1am</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>2am-5am</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10am</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>9AM</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>100</t>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>80</t>
         </is>
       </c>
     </row>
